--- a/比赛记录/2024 统计建模/天津空气质量指数月统计历史数据2013.12-2024.5.xlsx
+++ b/比赛记录/2024 统计建模/天津空气质量指数月统计历史数据2013.12-2024.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92579\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Normal_tools\Github_desktop\Clone_shop\Mathematical-Modeling\比赛记录\2024 统计建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF97AFF3-A693-4687-BB38-37488B80BE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A06743-00C1-4EB8-B257-81050DA1BCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="138">
   <si>
-    <t>月份</t>
-  </si>
-  <si>
     <t>AQI</t>
   </si>
   <si>
@@ -439,6 +436,10 @@
   </si>
   <si>
     <t>75~75</t>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -766,42 +767,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -812,10 +811,10 @@
         <v>156</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -844,10 +843,10 @@
         <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>113</v>
@@ -876,10 +875,10 @@
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>96</v>
@@ -908,10 +907,10 @@
         <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>112</v>
@@ -940,10 +939,10 @@
         <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>85</v>
@@ -972,10 +971,10 @@
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -1004,10 +1003,10 @@
         <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>58</v>
@@ -1036,10 +1035,10 @@
         <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>76</v>
@@ -1068,10 +1067,10 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -1100,10 +1099,10 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1132,10 +1131,10 @@
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>99</v>
@@ -1164,10 +1163,10 @@
         <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>111</v>
@@ -1196,10 +1195,10 @@
         <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>107</v>
@@ -1228,10 +1227,10 @@
         <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1260,10 +1259,10 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>80</v>
@@ -1292,10 +1291,10 @@
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>72</v>
@@ -1324,10 +1323,10 @@
         <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>64</v>
@@ -1356,10 +1355,10 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>51</v>
@@ -1388,10 +1387,10 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>59</v>
@@ -1420,10 +1419,10 @@
         <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>49</v>
@@ -1452,10 +1451,10 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -1484,10 +1483,10 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>44</v>
@@ -1516,10 +1515,10 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>54</v>
@@ -1548,10 +1547,10 @@
         <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>88</v>
@@ -1580,10 +1579,10 @@
         <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>125</v>
@@ -1612,10 +1611,10 @@
         <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>74</v>
@@ -1644,10 +1643,10 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -1676,10 +1675,10 @@
         <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>81</v>
@@ -1708,10 +1707,10 @@
         <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>64</v>
@@ -1740,10 +1739,10 @@
         <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>51</v>
@@ -1772,10 +1771,10 @@
         <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>54</v>
@@ -1804,10 +1803,10 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>53</v>
@@ -1836,10 +1835,10 @@
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>41</v>
@@ -1868,10 +1867,10 @@
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>52</v>
@@ -1900,10 +1899,10 @@
         <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>64</v>
@@ -1932,10 +1931,10 @@
         <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>104</v>
@@ -1964,10 +1963,10 @@
         <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>135</v>
@@ -1996,10 +1995,10 @@
         <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>109</v>
@@ -2028,10 +2027,10 @@
         <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>85</v>
@@ -2060,10 +2059,10 @@
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>70</v>
@@ -2092,10 +2091,10 @@
         <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>64</v>
@@ -2124,10 +2123,10 @@
         <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43">
         <v>41</v>
@@ -2156,10 +2155,10 @@
         <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>46</v>
@@ -2188,10 +2187,10 @@
         <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45">
         <v>52</v>
@@ -2220,10 +2219,10 @@
         <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>37</v>
@@ -2252,10 +2251,10 @@
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>54</v>
@@ -2284,10 +2283,10 @@
         <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>62</v>
@@ -2316,10 +2315,10 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>53</v>
@@ -2348,10 +2347,10 @@
         <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <v>69</v>
@@ -2380,10 +2379,10 @@
         <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>53</v>
@@ -2412,10 +2411,10 @@
         <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>60</v>
@@ -2444,10 +2443,10 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>75</v>
@@ -2476,10 +2475,10 @@
         <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>44</v>
@@ -2508,10 +2507,10 @@
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>38</v>
@@ -2540,10 +2539,10 @@
         <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56">
         <v>40</v>
@@ -2572,10 +2571,10 @@
         <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>38</v>
@@ -2604,10 +2603,10 @@
         <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>29</v>
@@ -2636,10 +2635,10 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>30</v>
@@ -2668,10 +2667,10 @@
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>44</v>
@@ -2700,10 +2699,10 @@
         <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>79</v>
@@ -2732,10 +2731,10 @@
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>53</v>
@@ -2764,10 +2763,10 @@
         <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>81</v>
@@ -2796,10 +2795,10 @@
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>78</v>
@@ -2828,10 +2827,10 @@
         <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>54</v>
@@ -2860,10 +2859,10 @@
         <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>49</v>
@@ -2892,10 +2891,10 @@
         <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>41</v>
@@ -2924,10 +2923,10 @@
         <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <v>42</v>
@@ -2956,10 +2955,10 @@
         <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69">
         <v>41</v>
@@ -2988,10 +2987,10 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>26</v>
@@ -3020,10 +3019,10 @@
         <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>41</v>
@@ -3052,10 +3051,10 @@
         <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>50</v>
@@ -3084,10 +3083,10 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>51</v>
@@ -3116,10 +3115,10 @@
         <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>61</v>
@@ -3148,10 +3147,10 @@
         <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75">
         <v>101</v>
@@ -3180,10 +3179,10 @@
         <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>61</v>
@@ -3212,10 +3211,10 @@
         <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>43</v>
@@ -3244,10 +3243,10 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>40</v>
@@ -3276,10 +3275,10 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>35</v>
@@ -3308,10 +3307,10 @@
         <v>116</v>
       </c>
       <c r="C80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80">
         <v>38</v>
@@ -3340,10 +3339,10 @@
         <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81">
         <v>41</v>
@@ -3372,10 +3371,10 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>34</v>
@@ -3404,10 +3403,10 @@
         <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>29</v>
@@ -3436,10 +3435,10 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>54</v>
@@ -3468,10 +3467,10 @@
         <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>47</v>
@@ -3500,10 +3499,10 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>53</v>
@@ -3532,10 +3531,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>45</v>
@@ -3564,10 +3563,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>57</v>
@@ -3596,10 +3595,10 @@
         <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89">
         <v>58</v>
@@ -3628,10 +3627,10 @@
         <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>36</v>
@@ -3660,10 +3659,10 @@
         <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>23</v>
@@ -3692,10 +3691,10 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>29</v>
@@ -3724,10 +3723,10 @@
         <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>21</v>
@@ -3756,10 +3755,10 @@
         <v>87</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>23</v>
@@ -3788,10 +3787,10 @@
         <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>23</v>
@@ -3820,10 +3819,10 @@
         <v>72</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>39</v>
@@ -3852,10 +3851,10 @@
         <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>47</v>
@@ -3884,10 +3883,10 @@
         <v>79</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>50</v>
@@ -3916,10 +3915,10 @@
         <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>52</v>
@@ -3948,10 +3947,10 @@
         <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>37</v>
@@ -3980,10 +3979,10 @@
         <v>74</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>45</v>
@@ -4012,10 +4011,10 @@
         <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>37</v>
@@ -4044,10 +4043,10 @@
         <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>27</v>
@@ -4076,10 +4075,10 @@
         <v>101</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104">
         <v>29</v>
@@ -4108,10 +4107,10 @@
         <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>23</v>
@@ -4140,10 +4139,10 @@
         <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>22</v>
@@ -4172,10 +4171,10 @@
         <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>29</v>
@@ -4204,10 +4203,10 @@
         <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>40</v>
@@ -4236,10 +4235,10 @@
         <v>89</v>
       </c>
       <c r="C109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>60</v>
@@ -4268,10 +4267,10 @@
         <v>80</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E110">
         <v>40</v>
@@ -4300,10 +4299,10 @@
         <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>60</v>
@@ -4332,10 +4331,10 @@
         <v>90</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>61</v>
@@ -4364,10 +4363,10 @@
         <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113">
         <v>66</v>
@@ -4396,10 +4395,10 @@
         <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114">
         <v>43</v>
@@ -4428,10 +4427,10 @@
         <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E115">
         <v>33</v>
@@ -4460,10 +4459,10 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E116">
         <v>24</v>
@@ -4492,10 +4491,10 @@
         <v>107</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <v>24</v>
@@ -4524,10 +4523,10 @@
         <v>87</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118">
         <v>24</v>
@@ -4556,10 +4555,10 @@
         <v>89</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E119">
         <v>34</v>
@@ -4588,10 +4587,10 @@
         <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E120">
         <v>49</v>
@@ -4620,10 +4619,10 @@
         <v>72</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E121">
         <v>42</v>
@@ -4652,10 +4651,10 @@
         <v>92</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E122">
         <v>61</v>
@@ -4684,10 +4683,10 @@
         <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123">
         <v>49</v>
@@ -4716,10 +4715,10 @@
         <v>85</v>
       </c>
       <c r="C124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E124">
         <v>58</v>
@@ -4748,10 +4747,10 @@
         <v>89</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E125">
         <v>52</v>
@@ -4780,10 +4779,10 @@
         <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E126">
         <v>40</v>
@@ -4812,10 +4811,10 @@
         <v>75</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E127">
         <v>19</v>
